--- a/cloud-infrastructure/vmware-solutions/oracle-cloud-vmware-solution/discovery-questionnaire/files/ocvs-discovery-questionnaire.xlsx
+++ b/cloud-infrastructure/vmware-solutions/oracle-cloud-vmware-solution/discovery-questionnaire/files/ocvs-discovery-questionnaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FAHASAN\Oracle Content - Accounts\Oracle Content\Documents\Workload Architect Team\FY22 - Specialist Re-org\FY24\Assets\Questionnaires\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/devendragawale/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CAAB1D1-C44D-4190-AB1B-935B025E19D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E413E7A5-32B8-5941-BCF7-EA982E52E021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="760" windowWidth="51840" windowHeight="17640" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="11" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="191">
   <si>
     <t>1)</t>
   </si>
@@ -619,6 +619,12 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Are you currently in discussion with Broadcom for the license renewal?</t>
+  </si>
+  <si>
+    <t>If yes, please confirm if the license renewal date</t>
   </si>
 </sst>
 </file>
@@ -768,7 +774,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -884,11 +890,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1068,39 +1087,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1110,6 +1107,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1946,9 +1970,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1986,7 +2010,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2092,7 +2116,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2234,7 +2258,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2248,14 +2272,14 @@
       <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="12" width="8.85546875" style="2"/>
+    <col min="1" max="12" width="8.83203125" style="2"/>
     <col min="13" max="13" width="4" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="2"/>
+    <col min="14" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -2270,7 +2294,7 @@
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -2285,7 +2309,7 @@
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -2300,7 +2324,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -2315,7 +2339,7 @@
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -2330,7 +2354,7 @@
       <c r="L5"/>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -2345,7 +2369,7 @@
       <c r="L6"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -2360,7 +2384,7 @@
       <c r="L7"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -2375,7 +2399,7 @@
       <c r="L8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -2390,7 +2414,7 @@
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -2405,7 +2429,7 @@
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -2420,7 +2444,7 @@
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -2435,7 +2459,7 @@
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -2450,7 +2474,7 @@
       <c r="L13"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -2465,7 +2489,7 @@
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -2480,7 +2504,7 @@
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -2495,7 +2519,7 @@
       <c r="L16"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -2510,7 +2534,7 @@
       <c r="L17"/>
       <c r="M17"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -2525,7 +2549,7 @@
       <c r="L18"/>
       <c r="M18"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -2540,7 +2564,7 @@
       <c r="L19"/>
       <c r="M19"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -2555,7 +2579,7 @@
       <c r="L20"/>
       <c r="M20"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -2570,7 +2594,7 @@
       <c r="L21"/>
       <c r="M21"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -2585,7 +2609,7 @@
       <c r="L22"/>
       <c r="M22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -2600,7 +2624,7 @@
       <c r="L23"/>
       <c r="M23"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -2615,7 +2639,7 @@
       <c r="L24"/>
       <c r="M24"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -2630,7 +2654,7 @@
       <c r="L25"/>
       <c r="M25"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -2645,7 +2669,7 @@
       <c r="L26"/>
       <c r="M26"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -2660,7 +2684,7 @@
       <c r="L27"/>
       <c r="M27"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -2675,7 +2699,7 @@
       <c r="L28"/>
       <c r="M28"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -2690,7 +2714,7 @@
       <c r="L29"/>
       <c r="M29"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -2705,7 +2729,7 @@
       <c r="L30"/>
       <c r="M30"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -2720,7 +2744,7 @@
       <c r="L31"/>
       <c r="M31"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -2735,7 +2759,7 @@
       <c r="L32"/>
       <c r="M32"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -2750,7 +2774,7 @@
       <c r="L33"/>
       <c r="M33"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -2765,7 +2789,7 @@
       <c r="L34"/>
       <c r="M34"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -2780,7 +2804,7 @@
       <c r="L35"/>
       <c r="M35"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -2795,7 +2819,7 @@
       <c r="L36"/>
       <c r="M36"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -2810,7 +2834,7 @@
       <c r="L37"/>
       <c r="M37"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -2825,7 +2849,7 @@
       <c r="L38"/>
       <c r="M38"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -2840,7 +2864,7 @@
       <c r="L39"/>
       <c r="M39"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -2855,7 +2879,7 @@
       <c r="L40"/>
       <c r="M40"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -2870,7 +2894,7 @@
       <c r="L41"/>
       <c r="M41"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -2885,7 +2909,7 @@
       <c r="L42"/>
       <c r="M42"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -2909,47 +2933,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y70"/>
+  <dimension ref="A1:Y71"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="95" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" style="3" customWidth="1"/>
-    <col min="6" max="25" width="9.140625" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="3" hidden="1"/>
+    <col min="4" max="4" width="41.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" style="3" customWidth="1"/>
+    <col min="6" max="25" width="9.1640625" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="9.1640625" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="79"/>
+      <c r="C3" s="86"/>
       <c r="D3" s="4"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="23" t="s">
         <v>0</v>
@@ -2960,7 +2984,7 @@
       <c r="D4" s="11"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="24"/>
       <c r="C5" s="47" t="s">
@@ -2969,7 +2993,7 @@
       <c r="D5" s="50"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="24"/>
       <c r="C6" s="47" t="s">
@@ -2978,7 +3002,7 @@
       <c r="D6" s="11"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="24"/>
       <c r="C7" s="47" t="s">
@@ -2987,7 +3011,7 @@
       <c r="D7" s="11"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="25"/>
       <c r="C8" s="49" t="s">
@@ -2996,7 +3020,7 @@
       <c r="D8" s="11"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="21" t="s">
         <v>1</v>
@@ -3007,7 +3031,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="21" t="s">
         <v>2</v>
@@ -3018,7 +3042,7 @@
       <c r="D10" s="11"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="21"/>
       <c r="C11" s="44" t="s">
@@ -3027,7 +3051,7 @@
       <c r="D11" s="11"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="21" t="s">
         <v>3</v>
@@ -3038,7 +3062,7 @@
       <c r="D12" s="28"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="21" t="s">
         <v>4</v>
@@ -3049,7 +3073,7 @@
       <c r="D13" s="51"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="15"/>
       <c r="C14" s="44" t="s">
@@ -3058,7 +3082,7 @@
       <c r="D14" s="51"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="15"/>
       <c r="C15" s="44" t="s">
@@ -3067,7 +3091,7 @@
       <c r="D15" s="11"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="26" t="s">
         <v>5</v>
@@ -3078,72 +3102,85 @@
       <c r="D16" s="11"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="11"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="94" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="51"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:C3"/>
@@ -3162,7 +3199,7 @@
       <formula1>"Data Center Exit, Additional Capacity Requirement, Disaster Recovery in the CLoud, Hardware Refresh"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" sqref="D5" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14" xr:uid="{00000000-0002-0000-0100-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14 D19" xr:uid="{00000000-0002-0000-0100-000005000000}">
       <formula1>"VMC on AWS, Azure VMware Solution, Google VMware Engine, IBM, Other MSP"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3180,17 +3217,17 @@
       <selection activeCell="B34" sqref="B34:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="86.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="2" customWidth="1"/>
-    <col min="6" max="26" width="9.140625" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="2" width="4.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="86.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" style="2" customWidth="1"/>
+    <col min="6" max="26" width="9.1640625" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -3213,7 +3250,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="2:26" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -3236,11 +3273,11 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="79" t="s">
+    <row r="3" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="79"/>
+      <c r="C3" s="86"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="2"/>
@@ -3265,7 +3302,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
@@ -3296,7 +3333,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="21"/>
       <c r="C5" s="44" t="s">
         <v>53</v>
@@ -3325,7 +3362,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -3356,7 +3393,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="15"/>
       <c r="C7" s="44" t="s">
         <v>42</v>
@@ -3385,7 +3422,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
         <v>1</v>
       </c>
@@ -3416,7 +3453,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="19" t="s">
         <v>2</v>
       </c>
@@ -3447,7 +3484,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15"/>
       <c r="C10" s="44" t="s">
         <v>31</v>
@@ -3476,7 +3513,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="15"/>
       <c r="C11" s="44" t="s">
         <v>32</v>
@@ -3505,7 +3542,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="15"/>
       <c r="C12" s="44" t="s">
         <v>97</v>
@@ -3534,7 +3571,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
       <c r="C13" s="44" t="s">
         <v>33</v>
@@ -3563,7 +3600,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15"/>
       <c r="C14" s="44" t="s">
         <v>34</v>
@@ -3592,7 +3629,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="15"/>
       <c r="C15" s="44" t="s">
         <v>35</v>
@@ -3621,7 +3658,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="19" t="s">
         <v>3</v>
       </c>
@@ -3652,7 +3689,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="15"/>
       <c r="C17" s="44" t="s">
         <v>36</v>
@@ -3681,7 +3718,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="15"/>
       <c r="C18" s="44" t="s">
         <v>37</v>
@@ -3710,7 +3747,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="16"/>
       <c r="C19" s="44" t="s">
         <v>35</v>
@@ -3739,7 +3776,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="19" t="s">
         <v>4</v>
       </c>
@@ -3770,7 +3807,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="15"/>
       <c r="C21" s="44" t="s">
         <v>90</v>
@@ -3799,7 +3836,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="15"/>
       <c r="C22" s="44" t="s">
         <v>38</v>
@@ -3828,7 +3865,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="15"/>
       <c r="C23" s="44" t="s">
         <v>35</v>
@@ -3857,7 +3894,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="21" t="s">
         <v>5</v>
       </c>
@@ -3888,7 +3925,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="15"/>
       <c r="C25" s="44" t="s">
         <v>39</v>
@@ -3917,7 +3954,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16"/>
       <c r="C26" s="44" t="s">
         <v>40</v>
@@ -3946,7 +3983,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="21" t="s">
         <v>6</v>
@@ -3978,7 +4015,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="44" t="s">
@@ -4008,7 +4045,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="8"/>
       <c r="C29" s="44" t="s">
@@ -4038,7 +4075,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="8"/>
       <c r="C30" s="44" t="s">
@@ -4068,7 +4105,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="8"/>
       <c r="C31" s="44" t="s">
@@ -4098,7 +4135,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="8"/>
       <c r="C32" s="44" t="s">
@@ -4128,7 +4165,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="8"/>
       <c r="C33" s="44" t="s">
@@ -4158,7 +4195,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="21" t="s">
         <v>150</v>
@@ -4190,13 +4227,13 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="8"/>
       <c r="C35" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="D35" s="93"/>
+      <c r="D35" s="85"/>
       <c r="E35" s="27"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -4220,13 +4257,13 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="8"/>
       <c r="C36" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="D36" s="93"/>
+      <c r="D36" s="85"/>
       <c r="E36" s="27"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -4250,13 +4287,13 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="9"/>
       <c r="C37" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="D37" s="93"/>
+      <c r="D37" s="85"/>
       <c r="E37" s="27"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -4280,7 +4317,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
@@ -4308,7 +4345,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -4336,7 +4373,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4364,7 +4401,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4392,7 +4429,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -4420,7 +4457,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -4448,7 +4485,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4476,7 +4513,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4504,7 +4541,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4532,7 +4569,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4560,7 +4597,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4588,7 +4625,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4616,7 +4653,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4644,7 +4681,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -4672,7 +4709,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4700,7 +4737,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4728,7 +4765,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4756,7 +4793,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4784,7 +4821,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4812,7 +4849,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4840,7 +4877,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -4868,7 +4905,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -4896,7 +4933,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -4924,7 +4961,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4952,7 +4989,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4980,7 +5017,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -5031,17 +5068,17 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="97.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" style="2" customWidth="1"/>
-    <col min="6" max="22" width="9.140625" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="2" width="4.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="97.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" style="2" customWidth="1"/>
+    <col min="6" max="22" width="9.1640625" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -5060,7 +5097,7 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -5079,11 +5116,11 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="85" t="s">
+    <row r="3" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="85"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="4"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -5103,7 +5140,7 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
@@ -5129,7 +5166,7 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
         <v>1</v>
       </c>
@@ -5155,7 +5192,7 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="21"/>
       <c r="C6" s="44" t="s">
@@ -5164,7 +5201,7 @@
       <c r="D6" s="42"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="21"/>
       <c r="C7" s="44" t="s">
@@ -5173,7 +5210,7 @@
       <c r="D7" s="42"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="21"/>
       <c r="C8" s="44" t="s">
@@ -5182,7 +5219,7 @@
       <c r="D8" s="42"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="21"/>
       <c r="C9" s="44" t="s">
@@ -5191,7 +5228,7 @@
       <c r="D9" s="42"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="21"/>
       <c r="C10" s="44" t="s">
@@ -5200,7 +5237,7 @@
       <c r="D10" s="42"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="21" t="s">
         <v>2</v>
@@ -5211,7 +5248,7 @@
       <c r="D11" s="42"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="21" t="s">
         <v>3</v>
@@ -5222,7 +5259,7 @@
       <c r="D12" s="42"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="21" t="s">
         <v>4</v>
@@ -5233,7 +5270,7 @@
       <c r="D13" s="42"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="21" t="s">
         <v>5</v>
@@ -5244,7 +5281,7 @@
       <c r="D14" s="42"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="26"/>
       <c r="C15" s="46" t="s">
@@ -5253,7 +5290,7 @@
       <c r="D15" s="42"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -5272,7 +5309,7 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -5291,7 +5328,7 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5315,7 +5352,7 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -5339,7 +5376,7 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -5363,7 +5400,7 @@
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5387,7 +5424,7 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -5411,7 +5448,7 @@
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -5435,7 +5472,7 @@
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -5459,7 +5496,7 @@
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
     </row>
-    <row r="25" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -5483,7 +5520,7 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -5507,7 +5544,7 @@
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
     </row>
-    <row r="27" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -5531,7 +5568,7 @@
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -5555,7 +5592,7 @@
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -5579,7 +5616,7 @@
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
     </row>
-    <row r="30" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -5603,7 +5640,7 @@
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
     </row>
-    <row r="31" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -5627,7 +5664,7 @@
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
     </row>
-    <row r="32" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -5651,7 +5688,7 @@
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
     </row>
-    <row r="33" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -5675,7 +5712,7 @@
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
     </row>
-    <row r="34" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -5699,7 +5736,7 @@
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
     </row>
-    <row r="35" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -5723,7 +5760,7 @@
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
     </row>
-    <row r="36" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -5747,7 +5784,7 @@
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
     </row>
-    <row r="37" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -5771,7 +5808,7 @@
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
     </row>
-    <row r="38" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -5795,7 +5832,7 @@
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
     </row>
-    <row r="39" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -5819,7 +5856,7 @@
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
     </row>
-    <row r="40" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -5843,7 +5880,7 @@
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
     </row>
-    <row r="41" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -5867,7 +5904,7 @@
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
     </row>
-    <row r="42" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -5891,7 +5928,7 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -5915,7 +5952,7 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -5939,7 +5976,7 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -5985,17 +6022,17 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="4.7109375" style="66" customWidth="1"/>
-    <col min="3" max="3" width="92.42578125" style="66" customWidth="1"/>
-    <col min="4" max="4" width="48.28515625" style="66" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="66" customWidth="1"/>
-    <col min="6" max="22" width="9.140625" style="66" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="68" hidden="1"/>
+    <col min="1" max="2" width="4.6640625" style="66" customWidth="1"/>
+    <col min="3" max="3" width="92.5" style="66" customWidth="1"/>
+    <col min="4" max="4" width="48.33203125" style="66" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="66" customWidth="1"/>
+    <col min="6" max="22" width="9.1640625" style="66" customWidth="1"/>
+    <col min="23" max="16384" width="9.1640625" style="68" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F1" s="66"/>
       <c r="G1" s="66"/>
       <c r="H1" s="66"/>
@@ -6014,7 +6051,7 @@
       <c r="U1" s="66"/>
       <c r="V1" s="66"/>
     </row>
-    <row r="2" spans="1:22" s="65" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="65" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F2" s="66"/>
       <c r="G2" s="66"/>
       <c r="H2" s="66"/>
@@ -6033,11 +6070,11 @@
       <c r="U2" s="66"/>
       <c r="V2" s="66"/>
     </row>
-    <row r="3" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="85" t="s">
+    <row r="3" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="85"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="4"/>
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
@@ -6057,14 +6094,14 @@
       <c r="U3" s="66"/>
       <c r="V3" s="66"/>
     </row>
-    <row r="4" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="81"/>
+      <c r="D4" s="79"/>
       <c r="F4" s="66"/>
       <c r="G4" s="66"/>
       <c r="H4" s="66"/>
@@ -6083,14 +6120,14 @@
       <c r="U4" s="66"/>
       <c r="V4" s="66"/>
     </row>
-    <row r="5" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="81"/>
+      <c r="D5" s="79"/>
       <c r="F5" s="66"/>
       <c r="G5" s="66"/>
       <c r="H5" s="66"/>
@@ -6109,7 +6146,7 @@
       <c r="U5" s="66"/>
       <c r="V5" s="66"/>
     </row>
-    <row r="6" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="67"/>
       <c r="C6" s="44" t="s">
         <v>86</v>
@@ -6133,7 +6170,7 @@
       <c r="U6" s="66"/>
       <c r="V6" s="66"/>
     </row>
-    <row r="7" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="67"/>
       <c r="C7" s="44" t="s">
         <v>78</v>
@@ -6157,7 +6194,7 @@
       <c r="U7" s="66"/>
       <c r="V7" s="66"/>
     </row>
-    <row r="8" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="67"/>
       <c r="C8" s="44" t="s">
         <v>87</v>
@@ -6181,7 +6218,7 @@
       <c r="U8" s="66"/>
       <c r="V8" s="66"/>
     </row>
-    <row r="9" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="67"/>
       <c r="C9" s="44" t="s">
         <v>88</v>
@@ -6205,7 +6242,7 @@
       <c r="U9" s="66"/>
       <c r="V9" s="66"/>
     </row>
-    <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65"/>
       <c r="B10" s="21" t="s">
         <v>2</v>
@@ -6213,10 +6250,10 @@
       <c r="C10" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="82"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="65"/>
     </row>
-    <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="65"/>
       <c r="B11" s="21" t="s">
         <v>3</v>
@@ -6224,10 +6261,10 @@
       <c r="C11" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="82"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="65"/>
     </row>
-    <row r="12" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="65"/>
       <c r="B12" s="21" t="s">
         <v>4</v>
@@ -6235,10 +6272,10 @@
       <c r="C12" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="83"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="65"/>
     </row>
-    <row r="13" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="65"/>
       <c r="B13" s="21" t="s">
         <v>5</v>
@@ -6246,21 +6283,21 @@
       <c r="C13" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="83"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="65"/>
     </row>
-    <row r="14" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="65"/>
       <c r="B14" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="83"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="65"/>
     </row>
-    <row r="15" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F15" s="66"/>
       <c r="G15" s="66"/>
       <c r="H15" s="66"/>
@@ -6279,7 +6316,7 @@
       <c r="U15" s="66"/>
       <c r="V15" s="66"/>
     </row>
-    <row r="16" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F16" s="66"/>
       <c r="G16" s="66"/>
       <c r="H16" s="66"/>
@@ -6298,7 +6335,7 @@
       <c r="U16" s="66"/>
       <c r="V16" s="66"/>
     </row>
-    <row r="17" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="66"/>
       <c r="B17" s="66"/>
       <c r="C17" s="66"/>
@@ -6322,7 +6359,7 @@
       <c r="U17" s="66"/>
       <c r="V17" s="66"/>
     </row>
-    <row r="18" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="66"/>
       <c r="B18" s="66"/>
       <c r="C18" s="66"/>
@@ -6346,7 +6383,7 @@
       <c r="U18" s="66"/>
       <c r="V18" s="66"/>
     </row>
-    <row r="19" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="66"/>
       <c r="B19" s="66"/>
       <c r="C19" s="69"/>
@@ -6370,7 +6407,7 @@
       <c r="U19" s="66"/>
       <c r="V19" s="66"/>
     </row>
-    <row r="20" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="66"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66"/>
@@ -6394,7 +6431,7 @@
       <c r="U20" s="66"/>
       <c r="V20" s="66"/>
     </row>
-    <row r="21" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="66"/>
       <c r="B21" s="66"/>
       <c r="C21" s="66"/>
@@ -6418,7 +6455,7 @@
       <c r="U21" s="66"/>
       <c r="V21" s="66"/>
     </row>
-    <row r="22" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="66"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66"/>
@@ -6442,7 +6479,7 @@
       <c r="U22" s="66"/>
       <c r="V22" s="66"/>
     </row>
-    <row r="23" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="66"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
@@ -6466,7 +6503,7 @@
       <c r="U23" s="66"/>
       <c r="V23" s="66"/>
     </row>
-    <row r="24" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="66"/>
       <c r="B24" s="66"/>
       <c r="C24" s="66"/>
@@ -6490,7 +6527,7 @@
       <c r="U24" s="66"/>
       <c r="V24" s="66"/>
     </row>
-    <row r="25" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="66"/>
       <c r="B25" s="66"/>
       <c r="C25" s="66"/>
@@ -6514,7 +6551,7 @@
       <c r="U25" s="66"/>
       <c r="V25" s="66"/>
     </row>
-    <row r="26" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="66"/>
       <c r="B26" s="66"/>
       <c r="C26" s="66"/>
@@ -6538,7 +6575,7 @@
       <c r="U26" s="66"/>
       <c r="V26" s="66"/>
     </row>
-    <row r="27" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="66"/>
       <c r="B27" s="66"/>
       <c r="C27" s="66"/>
@@ -6562,7 +6599,7 @@
       <c r="U27" s="66"/>
       <c r="V27" s="66"/>
     </row>
-    <row r="28" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="66"/>
       <c r="B28" s="66"/>
       <c r="C28" s="66"/>
@@ -6586,7 +6623,7 @@
       <c r="U28" s="66"/>
       <c r="V28" s="66"/>
     </row>
-    <row r="29" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="66"/>
       <c r="B29" s="66"/>
       <c r="C29" s="66"/>
@@ -6610,7 +6647,7 @@
       <c r="U29" s="66"/>
       <c r="V29" s="66"/>
     </row>
-    <row r="30" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="66"/>
       <c r="B30" s="66"/>
       <c r="C30" s="66"/>
@@ -6634,7 +6671,7 @@
       <c r="U30" s="66"/>
       <c r="V30" s="66"/>
     </row>
-    <row r="31" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="66"/>
       <c r="B31" s="66"/>
       <c r="C31" s="66"/>
@@ -6658,7 +6695,7 @@
       <c r="U31" s="66"/>
       <c r="V31" s="66"/>
     </row>
-    <row r="32" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="66"/>
       <c r="B32" s="66"/>
       <c r="C32" s="66"/>
@@ -6682,7 +6719,7 @@
       <c r="U32" s="66"/>
       <c r="V32" s="66"/>
     </row>
-    <row r="33" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="66"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66"/>
@@ -6706,7 +6743,7 @@
       <c r="U33" s="66"/>
       <c r="V33" s="66"/>
     </row>
-    <row r="34" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="66"/>
       <c r="B34" s="66"/>
       <c r="C34" s="66"/>
@@ -6730,7 +6767,7 @@
       <c r="U34" s="66"/>
       <c r="V34" s="66"/>
     </row>
-    <row r="35" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="66"/>
       <c r="B35" s="66"/>
       <c r="C35" s="66"/>
@@ -6754,7 +6791,7 @@
       <c r="U35" s="66"/>
       <c r="V35" s="66"/>
     </row>
-    <row r="36" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="66"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66"/>
@@ -6778,7 +6815,7 @@
       <c r="U36" s="66"/>
       <c r="V36" s="66"/>
     </row>
-    <row r="37" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="66"/>
       <c r="B37" s="66"/>
       <c r="C37" s="66"/>
@@ -6802,7 +6839,7 @@
       <c r="U37" s="66"/>
       <c r="V37" s="66"/>
     </row>
-    <row r="38" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="66"/>
       <c r="B38" s="66"/>
       <c r="C38" s="66"/>
@@ -6826,7 +6863,7 @@
       <c r="U38" s="66"/>
       <c r="V38" s="66"/>
     </row>
-    <row r="39" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="66"/>
       <c r="B39" s="66"/>
       <c r="C39" s="66"/>
@@ -6850,7 +6887,7 @@
       <c r="U39" s="66"/>
       <c r="V39" s="66"/>
     </row>
-    <row r="40" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="66"/>
       <c r="B40" s="66"/>
       <c r="C40" s="66"/>
@@ -6874,7 +6911,7 @@
       <c r="U40" s="66"/>
       <c r="V40" s="66"/>
     </row>
-    <row r="41" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="66"/>
       <c r="B41" s="66"/>
       <c r="C41" s="66"/>
@@ -6898,7 +6935,7 @@
       <c r="U41" s="66"/>
       <c r="V41" s="66"/>
     </row>
-    <row r="42" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="66"/>
       <c r="B42" s="66"/>
       <c r="C42" s="66"/>
@@ -6922,7 +6959,7 @@
       <c r="U42" s="66"/>
       <c r="V42" s="66"/>
     </row>
-    <row r="43" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="66"/>
       <c r="B43" s="66"/>
       <c r="C43" s="66"/>
@@ -6946,7 +6983,7 @@
       <c r="U43" s="66"/>
       <c r="V43" s="66"/>
     </row>
-    <row r="44" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="66"/>
       <c r="B44" s="66"/>
       <c r="C44" s="66"/>
@@ -6995,17 +7032,17 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="105.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="45.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="2" customWidth="1"/>
-    <col min="6" max="26" width="9.140625" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="2" width="4.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="105.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="2" customWidth="1"/>
+    <col min="6" max="26" width="9.1640625" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -7028,7 +7065,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="2:26" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -7051,11 +7088,11 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="79" t="s">
+    <row r="3" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="79"/>
+      <c r="C3" s="86"/>
       <c r="D3" s="70"/>
       <c r="E3" s="5"/>
       <c r="F3" s="2"/>
@@ -7080,7 +7117,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="88" t="s">
         <v>123</v>
       </c>
@@ -7109,7 +7146,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="21" t="s">
         <v>0</v>
       </c>
@@ -7142,7 +7179,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="21"/>
       <c r="C6" s="44" t="s">
         <v>106</v>
@@ -7173,7 +7210,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="21"/>
       <c r="C7" s="44" t="s">
         <v>107</v>
@@ -7202,12 +7239,12 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="2:26" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:26" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B8" s="21"/>
       <c r="C8" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="83" t="s">
         <v>182</v>
       </c>
       <c r="E8" s="5"/>
@@ -7233,7 +7270,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="21" t="s">
         <v>1</v>
       </c>
@@ -7266,12 +7303,12 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="21"/>
       <c r="C10" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="92"/>
+      <c r="D10" s="84"/>
       <c r="E10" s="5"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -7295,7 +7332,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="15" t="s">
         <v>2</v>
       </c>
@@ -7328,7 +7365,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
         <v>3</v>
       </c>
@@ -7361,7 +7398,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
         <v>4</v>
       </c>
@@ -7394,7 +7431,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="15" t="s">
         <v>5</v>
       </c>
@@ -7427,7 +7464,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="15" t="s">
         <v>6</v>
       </c>
@@ -7460,7 +7497,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="15" t="s">
         <v>150</v>
       </c>
@@ -7493,7 +7530,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="15" t="s">
         <v>151</v>
       </c>
@@ -7526,7 +7563,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
         <v>152</v>
       </c>
@@ -7559,7 +7596,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="15" t="s">
         <v>153</v>
       </c>
@@ -7592,12 +7629,12 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="80" t="s">
+    <row r="20" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="90"/>
-      <c r="D20" s="92"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="84"/>
       <c r="E20" s="5"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -7621,7 +7658,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
         <v>154</v>
       </c>
@@ -7654,7 +7691,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="15" t="s">
         <v>155</v>
       </c>
@@ -7685,7 +7722,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="16"/>
       <c r="C23" s="44" t="s">
         <v>114</v>
@@ -7716,7 +7753,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="16"/>
       <c r="C24" s="44" t="s">
         <v>134</v>
@@ -7747,7 +7784,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
       <c r="C25" s="44" t="s">
         <v>135</v>
@@ -7778,7 +7815,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
       <c r="C26" s="44" t="s">
         <v>148</v>
@@ -7809,14 +7846,14 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="16" t="s">
         <v>156</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="D27" s="86" t="s">
+      <c r="D27" s="81" t="s">
         <v>136</v>
       </c>
       <c r="E27" s="5"/>
@@ -7842,14 +7879,14 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="16" t="s">
         <v>157</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="D28" s="86" t="s">
+      <c r="D28" s="81" t="s">
         <v>138</v>
       </c>
       <c r="E28" s="5"/>
@@ -7875,14 +7912,14 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="16" t="s">
         <v>158</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D29" s="86">
+      <c r="D29" s="81">
         <v>800</v>
       </c>
       <c r="E29" s="5"/>
@@ -7908,12 +7945,12 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="16"/>
       <c r="C30" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="86">
+      <c r="D30" s="81">
         <v>200</v>
       </c>
       <c r="E30" s="5"/>
@@ -7939,12 +7976,12 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="16"/>
       <c r="C31" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="86">
+      <c r="D31" s="81">
         <v>800</v>
       </c>
       <c r="E31" s="5"/>
@@ -7970,14 +8007,14 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="16" t="s">
         <v>159</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D32" s="86" t="s">
+      <c r="D32" s="81" t="s">
         <v>103</v>
       </c>
       <c r="E32" s="5"/>
@@ -8003,14 +8040,14 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="16" t="s">
         <v>160</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="87" t="s">
+      <c r="D33" s="82" t="s">
         <v>105</v>
       </c>
       <c r="E33" s="5"/>
@@ -8036,11 +8073,11 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="80" t="s">
+    <row r="34" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="90" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="90"/>
+      <c r="C34" s="91"/>
       <c r="D34" s="34"/>
       <c r="E34" s="5"/>
       <c r="F34" s="2"/>
@@ -8065,7 +8102,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="15" t="s">
         <v>169</v>
       </c>
@@ -8098,7 +8135,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="15" t="s">
         <v>170</v>
       </c>
@@ -8131,7 +8168,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="15" t="s">
         <v>171</v>
       </c>
@@ -8164,7 +8201,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="15" t="s">
         <v>172</v>
       </c>
@@ -8197,7 +8234,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="15" t="s">
         <v>173</v>
       </c>
@@ -8230,7 +8267,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="15"/>
       <c r="C40" s="74" t="s">
         <v>164</v>
@@ -8259,7 +8296,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="15" t="s">
         <v>176</v>
       </c>
@@ -8292,7 +8329,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="15" t="s">
         <v>177</v>
       </c>
@@ -8325,7 +8362,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="21" t="s">
         <v>178</v>
       </c>
@@ -8357,7 +8394,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="26" t="s">
         <v>183</v>
       </c>
@@ -8389,7 +8426,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -8412,7 +8449,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="78" t="s">
         <v>180</v>
       </c>
@@ -8438,7 +8475,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -8466,7 +8503,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -8494,7 +8531,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -8522,7 +8559,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -8550,7 +8587,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -8578,7 +8615,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -8606,7 +8643,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -8634,7 +8671,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -8662,7 +8699,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -8690,7 +8727,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -8718,7 +8755,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -8746,7 +8783,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -8774,7 +8811,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -8802,7 +8839,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -8830,7 +8867,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -8858,7 +8895,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -8886,7 +8923,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -8914,7 +8951,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -8942,7 +8979,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -8970,7 +9007,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -8998,7 +9035,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -9026,7 +9063,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -9054,7 +9091,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -9082,7 +9119,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -9110,7 +9147,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -9188,32 +9225,32 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="64.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="5" max="5" width="64.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" customWidth="1"/>
-    <col min="14" max="16" width="19.140625" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" customWidth="1"/>
-    <col min="18" max="18" width="22.42578125" customWidth="1"/>
-    <col min="19" max="19" width="56.85546875" customWidth="1"/>
-    <col min="20" max="20" width="4.7109375" style="2" customWidth="1"/>
-    <col min="21" max="32" width="9.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="21.83203125" customWidth="1"/>
+    <col min="14" max="16" width="19.1640625" customWidth="1"/>
+    <col min="17" max="17" width="18.1640625" customWidth="1"/>
+    <col min="18" max="18" width="22.5" customWidth="1"/>
+    <col min="19" max="19" width="56.83203125" customWidth="1"/>
+    <col min="20" max="20" width="4.6640625" style="2" customWidth="1"/>
+    <col min="21" max="32" width="9.1640625" style="2" customWidth="1"/>
     <col min="33" max="37" width="0" hidden="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" hidden="1"/>
+    <col min="38" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -9235,7 +9272,7 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
     </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -9257,7 +9294,7 @@
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
     </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="14" t="s">
         <v>60</v>
@@ -9281,7 +9318,7 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="1:20" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="64" t="s">
         <v>16</v>
@@ -9339,7 +9376,7 @@
       </c>
       <c r="T4" s="3"/>
     </row>
-    <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="37">
         <v>1</v>
@@ -9365,7 +9402,7 @@
       <c r="S5" s="39"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="37">
         <v>2</v>
@@ -9391,7 +9428,7 @@
       <c r="S6" s="39"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="37">
         <v>3</v>
@@ -9417,7 +9454,7 @@
       <c r="S7" s="39"/>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="37">
         <v>4</v>
@@ -9443,7 +9480,7 @@
       <c r="S8" s="39"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="37">
         <v>5</v>
@@ -9469,7 +9506,7 @@
       <c r="S9" s="39"/>
       <c r="T9" s="3"/>
     </row>
-    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="37">
         <v>6</v>
@@ -9495,7 +9532,7 @@
       <c r="S10" s="39"/>
       <c r="T10" s="3"/>
     </row>
-    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="37">
         <v>7</v>
@@ -9521,7 +9558,7 @@
       <c r="S11" s="39"/>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="37">
         <v>8</v>
@@ -9547,7 +9584,7 @@
       <c r="S12" s="39"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="37">
         <v>9</v>
@@ -9573,7 +9610,7 @@
       <c r="S13" s="39"/>
       <c r="T13" s="3"/>
     </row>
-    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="37">
         <v>10</v>
@@ -9599,7 +9636,7 @@
       <c r="S14" s="39"/>
       <c r="T14" s="3"/>
     </row>
-    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="37">
         <v>11</v>
@@ -9625,7 +9662,7 @@
       <c r="S15" s="39"/>
       <c r="T15" s="3"/>
     </row>
-    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="37">
         <v>12</v>
@@ -9651,7 +9688,7 @@
       <c r="S16" s="39"/>
       <c r="T16" s="3"/>
     </row>
-    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="37">
         <v>13</v>
@@ -9677,7 +9714,7 @@
       <c r="S17" s="39"/>
       <c r="T17" s="3"/>
     </row>
-    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="37">
         <v>14</v>
@@ -9703,7 +9740,7 @@
       <c r="S18" s="39"/>
       <c r="T18" s="3"/>
     </row>
-    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="37">
         <v>15</v>
@@ -9729,7 +9766,7 @@
       <c r="S19" s="39"/>
       <c r="T19" s="3"/>
     </row>
-    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="37">
         <v>16</v>
@@ -9755,7 +9792,7 @@
       <c r="S20" s="39"/>
       <c r="T20" s="3"/>
     </row>
-    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="37">
         <v>17</v>
@@ -9781,7 +9818,7 @@
       <c r="S21" s="39"/>
       <c r="T21" s="3"/>
     </row>
-    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="37">
         <v>18</v>
@@ -9807,7 +9844,7 @@
       <c r="S22" s="39"/>
       <c r="T22" s="3"/>
     </row>
-    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="37">
         <v>19</v>
@@ -9833,7 +9870,7 @@
       <c r="S23" s="39"/>
       <c r="T23" s="3"/>
     </row>
-    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="37">
         <v>20</v>
@@ -9859,7 +9896,7 @@
       <c r="S24" s="39"/>
       <c r="T24" s="3"/>
     </row>
-    <row r="25" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="37">
         <v>21</v>
@@ -9885,7 +9922,7 @@
       <c r="S25" s="39"/>
       <c r="T25" s="3"/>
     </row>
-    <row r="26" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -9907,7 +9944,7 @@
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
     </row>
-    <row r="27" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -9929,48 +9966,48 @@
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
     </row>
-    <row r="28" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="5:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="5:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="5:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="5:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="5:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="5:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
@@ -9999,33 +10036,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="59.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="2" customWidth="1"/>
+    <col min="1" max="2" width="4.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="59.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="27" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" style="2" customWidth="1"/>
     <col min="12" max="13" width="22" style="2" customWidth="1"/>
     <col min="14" max="16" width="19" style="2" customWidth="1"/>
-    <col min="17" max="18" width="11.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="22.42578125" style="2" customWidth="1"/>
+    <col min="17" max="18" width="11.83203125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="17.83203125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="22.5" style="2" customWidth="1"/>
     <col min="21" max="21" width="57" style="2" customWidth="1"/>
-    <col min="22" max="22" width="4.7109375" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="2"/>
+    <col min="22" max="22" width="4.6640625" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -10049,7 +10086,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -10073,7 +10110,7 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="1:22" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="14" t="s">
         <v>66</v>
@@ -10099,7 +10136,7 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
     </row>
-    <row r="4" spans="1:22" s="36" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" s="36" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
       <c r="B4" s="64" t="s">
         <v>16</v>
@@ -10163,7 +10200,7 @@
       </c>
       <c r="V4" s="52"/>
     </row>
-    <row r="5" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52"/>
       <c r="B5" s="37">
         <v>1</v>
@@ -10191,7 +10228,7 @@
       <c r="U5" s="39"/>
       <c r="V5" s="52"/>
     </row>
-    <row r="6" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="52"/>
       <c r="B6" s="37">
         <v>2</v>
@@ -10219,7 +10256,7 @@
       <c r="U6" s="39"/>
       <c r="V6" s="52"/>
     </row>
-    <row r="7" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52"/>
       <c r="B7" s="37">
         <v>3</v>
@@ -10247,7 +10284,7 @@
       <c r="U7" s="39"/>
       <c r="V7" s="52"/>
     </row>
-    <row r="8" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
       <c r="B8" s="37">
         <v>4</v>
@@ -10275,7 +10312,7 @@
       <c r="U8" s="39"/>
       <c r="V8" s="52"/>
     </row>
-    <row r="9" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52"/>
       <c r="B9" s="37">
         <v>5</v>
@@ -10303,7 +10340,7 @@
       <c r="U9" s="39"/>
       <c r="V9" s="52"/>
     </row>
-    <row r="10" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="52"/>
       <c r="B10" s="37">
         <v>6</v>
@@ -10331,7 +10368,7 @@
       <c r="U10" s="39"/>
       <c r="V10" s="52"/>
     </row>
-    <row r="11" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="52"/>
       <c r="B11" s="37">
         <v>7</v>
@@ -10359,7 +10396,7 @@
       <c r="U11" s="39"/>
       <c r="V11" s="52"/>
     </row>
-    <row r="12" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="52"/>
       <c r="B12" s="37">
         <v>8</v>
@@ -10387,7 +10424,7 @@
       <c r="U12" s="39"/>
       <c r="V12" s="52"/>
     </row>
-    <row r="13" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52"/>
       <c r="B13" s="37">
         <v>9</v>
@@ -10415,7 +10452,7 @@
       <c r="U13" s="39"/>
       <c r="V13" s="52"/>
     </row>
-    <row r="14" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="52"/>
       <c r="B14" s="37">
         <v>10</v>
@@ -10443,7 +10480,7 @@
       <c r="U14" s="39"/>
       <c r="V14" s="52"/>
     </row>
-    <row r="15" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52"/>
       <c r="B15" s="37">
         <v>11</v>
@@ -10471,7 +10508,7 @@
       <c r="U15" s="39"/>
       <c r="V15" s="52"/>
     </row>
-    <row r="16" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52"/>
       <c r="B16" s="37">
         <v>12</v>
@@ -10499,7 +10536,7 @@
       <c r="U16" s="39"/>
       <c r="V16" s="52"/>
     </row>
-    <row r="17" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52"/>
       <c r="B17" s="37">
         <v>13</v>
@@ -10527,7 +10564,7 @@
       <c r="U17" s="39"/>
       <c r="V17" s="52"/>
     </row>
-    <row r="18" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52"/>
       <c r="B18" s="37">
         <v>14</v>
@@ -10555,7 +10592,7 @@
       <c r="U18" s="39"/>
       <c r="V18" s="52"/>
     </row>
-    <row r="19" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="52"/>
       <c r="B19" s="37">
         <v>15</v>
@@ -10583,7 +10620,7 @@
       <c r="U19" s="39"/>
       <c r="V19" s="52"/>
     </row>
-    <row r="20" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="52"/>
       <c r="B20" s="37">
         <v>16</v>
@@ -10611,7 +10648,7 @@
       <c r="U20" s="39"/>
       <c r="V20" s="52"/>
     </row>
-    <row r="21" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="52"/>
       <c r="B21" s="37">
         <v>17</v>
@@ -10639,7 +10676,7 @@
       <c r="U21" s="39"/>
       <c r="V21" s="52"/>
     </row>
-    <row r="22" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="52"/>
       <c r="B22" s="37">
         <v>18</v>
@@ -10667,7 +10704,7 @@
       <c r="U22" s="39"/>
       <c r="V22" s="52"/>
     </row>
-    <row r="23" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
       <c r="B23" s="37">
         <v>19</v>
@@ -10695,7 +10732,7 @@
       <c r="U23" s="39"/>
       <c r="V23" s="52"/>
     </row>
-    <row r="24" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
       <c r="B24" s="37">
         <v>20</v>
@@ -10723,7 +10760,7 @@
       <c r="U24" s="39"/>
       <c r="V24" s="52"/>
     </row>
-    <row r="25" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
       <c r="B25" s="37">
         <v>21</v>
@@ -10751,7 +10788,7 @@
       <c r="U25" s="39"/>
       <c r="V25" s="52"/>
     </row>
-    <row r="26" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -10775,7 +10812,7 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
     </row>
-    <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -10823,25 +10860,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="18" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="91.140625" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="2" customWidth="1"/>
-    <col min="7" max="22" width="9.140625" style="2" customWidth="1"/>
-    <col min="23" max="25" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="9.42578125" hidden="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="91.1640625" customWidth="1"/>
+    <col min="4" max="4" width="45.5" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="2" customWidth="1"/>
+    <col min="7" max="22" width="9.1640625" style="2" customWidth="1"/>
+    <col min="23" max="25" width="9.1640625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5" hidden="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -10849,7 +10886,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -10857,7 +10894,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="14" t="s">
         <v>23</v>
@@ -10867,7 +10904,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="55"/>
       <c r="C4" s="56"/>
@@ -10875,7 +10912,7 @@
       <c r="E4" s="57"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="58"/>
       <c r="C5" s="59"/>
@@ -10883,7 +10920,7 @@
       <c r="E5" s="60"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="58"/>
       <c r="C6" s="59"/>
@@ -10891,7 +10928,7 @@
       <c r="E6" s="60"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="58"/>
       <c r="C7" s="59"/>
@@ -10899,7 +10936,7 @@
       <c r="E7" s="60"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="58"/>
       <c r="C8" s="59"/>
@@ -10907,7 +10944,7 @@
       <c r="E8" s="60"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="58"/>
       <c r="C9" s="59"/>
@@ -10915,7 +10952,7 @@
       <c r="E9" s="60"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="58"/>
       <c r="C10" s="59"/>
@@ -10923,7 +10960,7 @@
       <c r="E10" s="60"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="58"/>
       <c r="C11" s="59"/>
@@ -10931,7 +10968,7 @@
       <c r="E11" s="60"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="58"/>
       <c r="C12" s="59"/>
@@ -10939,7 +10976,7 @@
       <c r="E12" s="60"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="58"/>
       <c r="C13" s="59"/>
@@ -10947,7 +10984,7 @@
       <c r="E13" s="60"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="58"/>
       <c r="C14" s="59"/>
@@ -10955,7 +10992,7 @@
       <c r="E14" s="60"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="58"/>
       <c r="C15" s="59"/>
@@ -10963,7 +11000,7 @@
       <c r="E15" s="60"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="58"/>
       <c r="C16" s="59"/>
@@ -10971,7 +11008,7 @@
       <c r="E16" s="60"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="58"/>
       <c r="C17" s="59"/>
@@ -10979,7 +11016,7 @@
       <c r="E17" s="60"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="58"/>
       <c r="C18" s="59"/>
@@ -10987,7 +11024,7 @@
       <c r="E18" s="60"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="58"/>
       <c r="C19" s="59"/>
@@ -10995,7 +11032,7 @@
       <c r="E19" s="60"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="58"/>
       <c r="C20" s="59"/>
@@ -11003,7 +11040,7 @@
       <c r="E20" s="60"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="58"/>
       <c r="C21" s="59"/>
@@ -11011,7 +11048,7 @@
       <c r="E21" s="60"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="58"/>
       <c r="C22" s="59"/>
@@ -11019,7 +11056,7 @@
       <c r="E22" s="60"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="58"/>
       <c r="C23" s="59"/>
@@ -11027,7 +11064,7 @@
       <c r="E23" s="60"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="58"/>
       <c r="C24" s="59"/>
@@ -11035,7 +11072,7 @@
       <c r="E24" s="60"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="58"/>
       <c r="C25" s="59"/>
@@ -11043,7 +11080,7 @@
       <c r="E25" s="60"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="58"/>
       <c r="C26" s="59"/>
@@ -11051,7 +11088,7 @@
       <c r="E26" s="60"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="58"/>
       <c r="C27" s="59"/>
@@ -11059,7 +11096,7 @@
       <c r="E27" s="60"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="58"/>
       <c r="C28" s="59"/>
@@ -11067,7 +11104,7 @@
       <c r="E28" s="60"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="58"/>
       <c r="C29" s="59"/>
@@ -11075,7 +11112,7 @@
       <c r="E29" s="60"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="61"/>
       <c r="C30" s="62"/>
@@ -11083,7 +11120,7 @@
       <c r="E30" s="63"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -11091,7 +11128,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -11099,37 +11136,37 @@
       <c r="E32" s="5"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="48"/>
       <c r="C33" s="48"/>
       <c r="D33" s="48"/>
       <c r="E33" s="48"/>
     </row>
-    <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
       <c r="D34" s="48"/>
       <c r="E34" s="48"/>
     </row>
-    <row r="35" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
       <c r="D35" s="48"/>
       <c r="E35" s="48"/>
     </row>
-    <row r="36" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
       <c r="D36" s="48"/>
       <c r="E36" s="48"/>
     </row>
-    <row r="37" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
     </row>
-    <row r="38" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
@@ -11153,18 +11190,18 @@
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
     </row>
-    <row r="39" spans="1:22" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:22" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:22" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:22" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:22" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:22" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:22" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:22" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:22" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:22" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048575" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048576" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:22" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:22" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:22" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:22" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:22" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:22" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:22" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:22" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:22" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:22" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048575" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048576" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
